--- a/keeper.xlsx
+++ b/keeper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sidthakur08/GitHub/fpl_explore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63057D0D-04C0-2D47-A38F-FDFE77A36209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D95EED-7578-224F-9E46-15AA25EEA86C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{D128A629-7235-0B44-A5F8-CAAB19D686AA}"/>
+    <workbookView xWindow="15180" yWindow="460" windowWidth="13620" windowHeight="16500" xr2:uid="{D128A629-7235-0B44-A5F8-CAAB19D686AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>keepers</t>
   </si>
@@ -142,6 +142,66 @@
   </si>
   <si>
     <t>forwards</t>
+  </si>
+  <si>
+    <t>#(above 0.2)</t>
+  </si>
+  <si>
+    <t>goals_assists_per90</t>
+  </si>
+  <si>
+    <t>alexander arnold</t>
+  </si>
+  <si>
+    <t>andy robertson</t>
+  </si>
+  <si>
+    <t>marcos alonso</t>
+  </si>
+  <si>
+    <t>Jetro Williams</t>
+  </si>
+  <si>
+    <t>Ben Chillwell</t>
+  </si>
+  <si>
+    <t>Matt Doherty</t>
+  </si>
+  <si>
+    <t>azpi</t>
+  </si>
+  <si>
+    <t>lucas digne</t>
+  </si>
+  <si>
+    <t>sidibe and aurier</t>
+  </si>
+  <si>
+    <t>npxg_xa_per90</t>
+  </si>
+  <si>
+    <t>#(above 0.15)</t>
+  </si>
+  <si>
+    <t>robertson</t>
+  </si>
+  <si>
+    <t>marcus alonso</t>
+  </si>
+  <si>
+    <t>reece james</t>
+  </si>
+  <si>
+    <t>doherty</t>
+  </si>
+  <si>
+    <t>digne</t>
+  </si>
+  <si>
+    <t>van aanholt, chillwell, ryan bertrand, r pereira</t>
+  </si>
+  <si>
+    <t>dunk, stevens</t>
   </si>
 </sst>
 </file>
@@ -512,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DE77BE-27ED-1F42-B3D7-B8B63C96E7F3}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,7 +610,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4">
@@ -568,7 +628,7 @@
       <c r="F4">
         <v>46</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H4">
@@ -576,7 +636,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -608,19 +668,19 @@
       <c r="B6">
         <v>75</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6">
         <v>7.2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F6">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H6">
@@ -628,13 +688,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7">
         <v>74</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7">
@@ -666,7 +726,7 @@
       <c r="D8">
         <v>6.2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8">
@@ -692,7 +752,7 @@
       <c r="D9">
         <v>4.8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F9">
@@ -712,7 +772,7 @@
       <c r="B10">
         <v>72</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10">
@@ -758,7 +818,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12">
@@ -770,7 +830,7 @@
       <c r="D12">
         <v>2.5</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F12">
@@ -802,7 +862,153 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>0.48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>0.41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>0.38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>0.24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>0.23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>0.22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>0.22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>0.21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>0.2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>

--- a/keeper.xlsx
+++ b/keeper.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sidthakur08/GitHub/fpl_explore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D95EED-7578-224F-9E46-15AA25EEA86C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52BF53A-46E8-F244-930E-10C4CEC15EFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="460" windowWidth="13620" windowHeight="16500" xr2:uid="{D128A629-7235-0B44-A5F8-CAAB19D686AA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{D128A629-7235-0B44-A5F8-CAAB19D686AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
   <si>
     <t>keepers</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Rui Patricio</t>
   </si>
   <si>
-    <t>choose players</t>
-  </si>
-  <si>
     <t>points</t>
   </si>
   <si>
@@ -126,24 +123,9 @@
     <t>Ryan</t>
   </si>
   <si>
-    <t>keeper</t>
-  </si>
-  <si>
-    <t>steer</t>
-  </si>
-  <si>
-    <t>Lloris or Leno</t>
-  </si>
-  <si>
     <t>defenders</t>
   </si>
   <si>
-    <t>midfielders</t>
-  </si>
-  <si>
-    <t>forwards</t>
-  </si>
-  <si>
     <t>#(above 0.2)</t>
   </si>
   <si>
@@ -202,13 +184,190 @@
   </si>
   <si>
     <t>dunk, stevens</t>
+  </si>
+  <si>
+    <t>van dijk</t>
+  </si>
+  <si>
+    <t>matt doherty</t>
+  </si>
+  <si>
+    <t>takowski</t>
+  </si>
+  <si>
+    <t>stevens</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>baldock</t>
+  </si>
+  <si>
+    <t>egan</t>
+  </si>
+  <si>
+    <t>evans</t>
+  </si>
+  <si>
+    <t>dunk</t>
+  </si>
+  <si>
+    <t>goals_assists_pens_per90</t>
+  </si>
+  <si>
+    <t>#(above 0.4)</t>
+  </si>
+  <si>
+    <t>aguero (mins less)</t>
+  </si>
+  <si>
+    <t>de bruyne</t>
+  </si>
+  <si>
+    <t>jesus</t>
+  </si>
+  <si>
+    <t>midfielders and forwards</t>
+  </si>
+  <si>
+    <t>mahrez</t>
+  </si>
+  <si>
+    <t>sadio mane</t>
+  </si>
+  <si>
+    <t>salah</t>
+  </si>
+  <si>
+    <t>Anthony Martial</t>
+  </si>
+  <si>
+    <t>Son Heung-min</t>
+  </si>
+  <si>
+    <t>Danny Ings</t>
+  </si>
+  <si>
+    <t>Tammy Abraham</t>
+  </si>
+  <si>
+    <t>Jamie Vardy</t>
+  </si>
+  <si>
+    <t>Raheem Sterling</t>
+  </si>
+  <si>
+    <t>Christian Pulisic</t>
+  </si>
+  <si>
+    <t>Alexandre Lacazette</t>
+  </si>
+  <si>
+    <t>Pierre-Emerick Aubameyang</t>
+  </si>
+  <si>
+    <t>Harry Kane</t>
+  </si>
+  <si>
+    <t>Marcus Rashford</t>
+  </si>
+  <si>
+    <t>Michail Antonio</t>
+  </si>
+  <si>
+    <t>Harvey Barnes</t>
+  </si>
+  <si>
+    <t>Bernardo Silva</t>
+  </si>
+  <si>
+    <t>Dele Alli</t>
+  </si>
+  <si>
+    <t>Raúl Jiménez</t>
+  </si>
+  <si>
+    <t>Chris Wood</t>
+  </si>
+  <si>
+    <t>Gabriel Jesus</t>
+  </si>
+  <si>
+    <t>Sergio Agüero</t>
+  </si>
+  <si>
+    <t>Kevin De Bruyne</t>
+  </si>
+  <si>
+    <t>Mohamed Salah</t>
+  </si>
+  <si>
+    <t>Riyad Mahrez</t>
+  </si>
+  <si>
+    <t>Sadio Mané</t>
+  </si>
+  <si>
+    <t>Roberto Firmino</t>
+  </si>
+  <si>
+    <t>Diogo Jota</t>
+  </si>
+  <si>
+    <t>Dominic Calvert-Lewin</t>
+  </si>
+  <si>
+    <t># (above</t>
+  </si>
+  <si>
+    <t>points last season</t>
+  </si>
+  <si>
+    <t>Heung-Min Son</t>
+  </si>
+  <si>
+    <t>Willian Borges Da Silva</t>
+  </si>
+  <si>
+    <t>Richarlison de Andrade</t>
+  </si>
+  <si>
+    <t>Jack Grealish</t>
+  </si>
+  <si>
+    <t>Gabriel Fernando de Jesus</t>
+  </si>
+  <si>
+    <t>John Lundstram</t>
+  </si>
+  <si>
+    <t>Mason Mount</t>
+  </si>
+  <si>
+    <t>Jordan Ayew</t>
+  </si>
+  <si>
+    <t>Neal Maupay</t>
+  </si>
+  <si>
+    <t>Adama Traoré</t>
+  </si>
+  <si>
+    <t>Ayoze Pérez</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>David McGoldrick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,11 +384,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -252,10 +436,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DE77BE-27ED-1F42-B3D7-B8B63C96E7F3}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,14 +791,14 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
@@ -628,15 +816,15 @@
       <c r="F4">
         <v>46</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H4">
         <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -655,7 +843,7 @@
         <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>160</v>
@@ -668,33 +856,33 @@
       <c r="B6">
         <v>75</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6">
         <v>7.2</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F6">
         <v>40</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="H6">
         <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
         <v>74</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7">
@@ -707,7 +895,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>153</v>
@@ -726,14 +914,14 @@
       <c r="D8">
         <v>6.2</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8">
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>143</v>
@@ -752,7 +940,7 @@
       <c r="D9">
         <v>4.8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F9">
@@ -772,7 +960,7 @@
       <c r="B10">
         <v>72</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10">
@@ -811,14 +999,14 @@
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12">
@@ -830,7 +1018,7 @@
       <c r="D12">
         <v>2.5</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F12">
@@ -859,188 +1047,915 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B19">
         <v>0.48</v>
       </c>
-      <c r="C19" t="s">
-        <v>41</v>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D19">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19">
+        <v>210</v>
+      </c>
+      <c r="G19">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>0.41</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20">
+        <v>181</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>0.38</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>178</v>
+      </c>
+      <c r="G21">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>0.24</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>45</v>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22">
+        <v>167</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B23">
         <v>0.23</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D23">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>46</v>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23">
+        <v>143</v>
+      </c>
+      <c r="G23">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B24">
         <v>0.22</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D24">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24">
+        <v>142</v>
+      </c>
+      <c r="G24">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>0.22</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25">
+        <v>142</v>
+      </c>
+      <c r="G25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>0.21</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D26">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26">
+        <v>133</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>0.2</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27">
+        <v>130</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <v>128</v>
+      </c>
+      <c r="G28">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="B32">
+        <v>1.05</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="G32" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="2">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="B34">
+        <v>0.93</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="2">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>0.88</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="2">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36">
+        <v>0.82</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="2">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37">
+        <v>0.81</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="2">
+        <v>9</v>
+      </c>
+      <c r="G38" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="G42" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="2">
+        <v>9</v>
+      </c>
+      <c r="G43" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="2">
+        <v>8</v>
+      </c>
+      <c r="G44" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="2">
+        <v>8</v>
+      </c>
+      <c r="G45" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="G46" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="G47" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="G48" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="2">
+        <v>7</v>
+      </c>
+      <c r="G49" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="G51" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="2">
+        <v>7</v>
+      </c>
+      <c r="G52" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G53" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="2">
+        <v>7</v>
+      </c>
+      <c r="G54" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="2">
+        <v>6</v>
+      </c>
+      <c r="G55" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="G56" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G57" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E58" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G58" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G59" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E60" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="G60" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E61" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="2">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/keeper.xlsx
+++ b/keeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sidthakur08/GitHub/fpl_explore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52BF53A-46E8-F244-930E-10C4CEC15EFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F9D90F-B4B3-AE4A-AB55-41888DD3F008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{D128A629-7235-0B44-A5F8-CAAB19D686AA}"/>
   </bookViews>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DE77BE-27ED-1F42-B3D7-B8B63C96E7F3}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
